--- a/data/bon appetit.xlsx
+++ b/data/bon appetit.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karam\Desktop\bon apetit\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\karam\Desktop\bon appetit 2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B5CCC0-6CC0-420C-A124-79CBE08D5842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22FDDD81-8AE5-42AB-933A-14F6F0A3F20D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
-  <si>
-    <t>Kebbe mamdoude</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="71">
   <si>
     <t>Kebbe Ma3 Basal w Loz</t>
   </si>
@@ -39,15 +36,6 @@
     <t>Eres kebbe Shahem</t>
   </si>
   <si>
-    <t>Eres kebbe lahem</t>
-  </si>
-  <si>
-    <t>Wara2 3enab zet</t>
-  </si>
-  <si>
-    <t>Wara2 3enab lahme</t>
-  </si>
-  <si>
     <t>Kabkoub Labniyeh</t>
   </si>
   <si>
@@ -75,15 +63,6 @@
     <t>Crispy</t>
   </si>
   <si>
-    <t>Escaloppe</t>
-  </si>
-  <si>
-    <t>Fahita</t>
-  </si>
-  <si>
-    <t>Mahshe Sale2</t>
-  </si>
-  <si>
     <t>Mahshe Malfouf</t>
   </si>
   <si>
@@ -102,12 +81,6 @@
     <t>Hot Dog</t>
   </si>
   <si>
-    <t>Re2a2at Fahita</t>
-  </si>
-  <si>
-    <t>Salade Crabe</t>
-  </si>
-  <si>
     <t>Greek Salade</t>
   </si>
   <si>
@@ -129,27 +102,15 @@
     <t>Ma3kroun Sekar</t>
   </si>
   <si>
-    <t>Ma3kroun Joz</t>
-  </si>
-  <si>
     <t>3waymet</t>
   </si>
   <si>
     <t>Petit Four</t>
   </si>
   <si>
-    <t>Gateaux</t>
-  </si>
-  <si>
-    <t>Ka3k l 3arous</t>
-  </si>
-  <si>
     <t>Tuna Pizza</t>
   </si>
   <si>
-    <t>Gateaux syeme</t>
-  </si>
-  <si>
     <t>Fattoush</t>
   </si>
   <si>
@@ -210,15 +171,9 @@
     <t>Re2a2at Jebne</t>
   </si>
   <si>
-    <t>Gateaux ananas</t>
-  </si>
-  <si>
     <t>Kebbet Samak</t>
   </si>
   <si>
-    <t>Ftayer Ton</t>
-  </si>
-  <si>
     <t>Mahshe Sele2</t>
   </si>
   <si>
@@ -238,6 +193,51 @@
   </si>
   <si>
     <t>Kebbet Hemmos</t>
+  </si>
+  <si>
+    <t>Gateau</t>
+  </si>
+  <si>
+    <t>Crabe Salade</t>
+  </si>
+  <si>
+    <t>Escalope</t>
+  </si>
+  <si>
+    <t>Re2a2at Fajita</t>
+  </si>
+  <si>
+    <t>Fajita</t>
+  </si>
+  <si>
+    <t>Gateau Syeme</t>
+  </si>
+  <si>
+    <t>Gateau Ananas</t>
+  </si>
+  <si>
+    <t>Cooking Options</t>
+  </si>
+  <si>
+    <t>Kebbe Mamdoude</t>
+  </si>
+  <si>
+    <t>Eres kebbe Lahem</t>
+  </si>
+  <si>
+    <t>Wara2 3enab Zet</t>
+  </si>
+  <si>
+    <t>Wara2 3enab Lahme</t>
+  </si>
+  <si>
+    <t>Ka3k L 3arous</t>
+  </si>
+  <si>
+    <t>Fried/Cooked</t>
+  </si>
+  <si>
+    <t>Ftayer Thon</t>
   </si>
 </sst>
 </file>
@@ -622,44 +622,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E62"/>
+  <dimension ref="B1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K6" sqref="K5:K6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="10" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E2" s="5">
         <v>4</v>
@@ -667,13 +667,13 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E3" s="5">
         <v>5</v>
@@ -681,13 +681,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -695,13 +695,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E5" s="5">
         <v>5</v>
@@ -709,13 +709,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5">
         <v>4</v>
@@ -723,13 +723,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
         <v>4</v>
@@ -737,13 +737,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5">
         <v>5</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5">
         <v>5</v>
@@ -765,13 +765,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5">
         <v>5</v>
@@ -779,13 +779,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5">
         <v>4</v>
@@ -793,13 +793,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5">
         <v>3</v>
@@ -807,13 +807,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
         <v>3</v>
@@ -821,13 +821,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5">
         <v>3</v>
@@ -835,13 +835,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E15" s="6">
         <v>15</v>
@@ -849,13 +849,13 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E16" s="6">
         <v>15</v>
@@ -863,13 +863,13 @@
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E17" s="6">
         <v>15</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E18" s="6">
         <v>10</v>
@@ -891,13 +891,13 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="E19" s="6">
         <v>10</v>
@@ -905,13 +905,13 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E20" s="5">
         <v>8</v>
@@ -919,13 +919,13 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E21" s="5">
         <v>9</v>
@@ -933,13 +933,13 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E22" s="5">
         <v>2.5</v>
@@ -947,13 +947,13 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="E23" s="5">
         <v>3</v>
@@ -961,13 +961,13 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E24" s="5">
         <v>3</v>
@@ -975,13 +975,13 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E25" s="6">
         <v>5</v>
@@ -989,13 +989,13 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E26" s="6">
         <v>8</v>
@@ -1003,13 +1003,13 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E27" s="6">
         <v>8</v>
@@ -1017,13 +1017,13 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6">
         <v>11</v>
@@ -1031,13 +1031,13 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E29" s="6">
         <v>8</v>
@@ -1045,13 +1045,13 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E30" s="6">
         <v>9</v>
@@ -1059,13 +1059,13 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E31" s="6">
         <v>8</v>
@@ -1073,13 +1073,13 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E32" s="6">
         <v>4</v>
@@ -1087,13 +1087,13 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E33" s="6">
         <v>7</v>
@@ -1101,13 +1101,13 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6">
         <v>4</v>
@@ -1115,13 +1115,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="E35" s="6">
         <v>4.5</v>
@@ -1129,13 +1129,13 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="E36" s="5">
         <v>6</v>
@@ -1143,13 +1143,13 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E37" s="5">
         <v>8</v>
@@ -1157,13 +1157,13 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E38" s="5">
         <v>6</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="2" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E39" s="5">
         <v>5</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E40" s="5">
         <v>5</v>
@@ -1199,13 +1199,13 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E41" s="5">
         <v>8</v>
@@ -1213,13 +1213,13 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E42" s="5">
         <v>6</v>
@@ -1227,13 +1227,13 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E43" s="5">
         <v>10</v>
@@ -1241,13 +1241,13 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E44" s="5">
         <v>4</v>
@@ -1255,13 +1255,13 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E45" s="5">
         <v>6</v>
@@ -1269,13 +1269,13 @@
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E46" s="6">
         <v>4</v>
@@ -1283,13 +1283,13 @@
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E47" s="6">
         <v>3</v>
@@ -1297,13 +1297,13 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E48" s="6">
         <v>3</v>
@@ -1311,13 +1311,13 @@
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E49" s="6">
         <v>3</v>
@@ -1325,13 +1325,13 @@
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E50" s="6">
         <v>3</v>
@@ -1339,13 +1339,13 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E51" s="6">
         <v>4</v>
@@ -1353,13 +1353,13 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E52" s="6">
         <v>5</v>
@@ -1367,13 +1367,13 @@
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="1" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E53" s="6">
         <v>5</v>
@@ -1381,13 +1381,13 @@
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E54" s="6">
         <v>9</v>
@@ -1395,13 +1395,13 @@
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E55" s="6">
         <v>8</v>
@@ -1409,13 +1409,13 @@
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B56" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E56" s="6">
         <v>9</v>
@@ -1423,13 +1423,13 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B57" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E57" s="6">
         <v>5</v>
@@ -1437,13 +1437,13 @@
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E58" s="6">
         <v>9</v>
@@ -1451,13 +1451,13 @@
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E59" s="6">
         <v>4</v>
@@ -1465,13 +1465,13 @@
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B60" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C60" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E60" s="6">
         <v>6</v>
@@ -1479,13 +1479,13 @@
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B61" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E61" s="6">
         <v>5</v>
@@ -1493,16 +1493,30 @@
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="1" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C62" s="9" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="E62" s="6">
         <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="5">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
